--- a/file/videoTemplate.xlsx
+++ b/file/videoTemplate.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28580" yWindow="460" windowWidth="21600" windowHeight="37860" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="21600" windowHeight="37860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1509">
   <si>
     <t>田馥甄最近有新剧吗</t>
   </si>
@@ -2280,9 +2280,6 @@
     <t>你知道霍乱时期的爱情</t>
   </si>
   <si>
-    <t>你知道大话西游之月光宝盒</t>
-  </si>
-  <si>
     <t>你知道成龙主演过哪些电影吗</t>
   </si>
   <si>
@@ -2809,9 +2806,6 @@
     <t>大鹏演过什么电影</t>
   </si>
   <si>
-    <t>大话西游看过吗</t>
-  </si>
-  <si>
     <t>大河的电影有吗</t>
   </si>
   <si>
@@ -3608,9 +3602,6 @@
     <t>你知道不知道奔跑吧兄弟这个综艺节目</t>
   </si>
   <si>
-    <t>大话西游这个综艺节目你了解吗</t>
-  </si>
-  <si>
     <t>你知道完美告白这档综艺栏目吗</t>
   </si>
   <si>
@@ -3818,9 +3809,6 @@
     <t>波多野结衣电影</t>
   </si>
   <si>
-    <t>电影大话西游</t>
-  </si>
-  <si>
     <t>电影我的少女时代</t>
   </si>
   <si>
@@ -3906,9 +3894,6 @@
   </si>
   <si>
     <t>戛纳电影节的电影</t>
-  </si>
-  <si>
-    <t>你知道大话西游吗</t>
   </si>
   <si>
     <t>你给我放一个喜剧片吧</t>
@@ -4011,177 +3996,6 @@
     <t>肖申克的救赎</t>
   </si>
   <si>
-    <t>电视剧大话西游的大结局是什么</t>
-  </si>
-  <si>
-    <t>大话西游的大结局预告片出来了吗</t>
-  </si>
-  <si>
-    <t>播放大话西游第三集预告片</t>
-  </si>
-  <si>
-    <t>想看大话西游第四集预告片</t>
-  </si>
-  <si>
-    <t>大话西游第六集预告片我想看一下</t>
-  </si>
-  <si>
-    <t>能看下大话西游第十集的预告片吗</t>
-  </si>
-  <si>
-    <t>我要看大话西游第二十三集预告片</t>
-  </si>
-  <si>
-    <t>大话西游第二十八集预告片放给我看下</t>
-  </si>
-  <si>
-    <t>放一下大话西游第二十七集的预告片</t>
-  </si>
-  <si>
-    <t>能把大话西游第十六集的预告片给我看下吗</t>
-  </si>
-  <si>
-    <t>大话西游第十五集预告片能放下吗</t>
-  </si>
-  <si>
-    <t>播放大话西游第九集预告片</t>
-  </si>
-  <si>
-    <t>给我看一下大话西游第二十集的预告片</t>
-  </si>
-  <si>
-    <t>播放大话西游第四十五集预告片给我看</t>
-  </si>
-  <si>
-    <t>把大话西游第五十八集预告片放一下</t>
-  </si>
-  <si>
-    <t>大话西游第二十三集预告片能让我看下吗</t>
-  </si>
-  <si>
-    <t>我能看大话西游第二十八集预告片吗</t>
-  </si>
-  <si>
-    <t>想看大话西游第二十七集的预告片</t>
-  </si>
-  <si>
-    <t>有大话西游第四十八集预告片可以看吗</t>
-  </si>
-  <si>
-    <t>有没有大话西游第二集预告片能看呀</t>
-  </si>
-  <si>
-    <t>我要看大话西游的第六十集预告片</t>
-  </si>
-  <si>
-    <t>大话西游的三十五集预告片有吗</t>
-  </si>
-  <si>
-    <t>能不能看大话西游的五十集预告片呀</t>
-  </si>
-  <si>
-    <t>大话西游第二集预告片出来了吗</t>
-  </si>
-  <si>
-    <t>大话西游第二集预告片放出来了吗</t>
-  </si>
-  <si>
-    <t>给我打开大话西游第二集的预告片吧</t>
-  </si>
-  <si>
-    <t>可以播放一下大话西游的预告片吗</t>
-  </si>
-  <si>
-    <t>能不能放一下大话西游的预告片</t>
-  </si>
-  <si>
-    <t>可以给我看一下大话西游第二十一集的预告片么</t>
-  </si>
-  <si>
-    <t>大话西游第三集预告片内容是什么</t>
-  </si>
-  <si>
-    <t>大话西游第三集有预告片吗</t>
-  </si>
-  <si>
-    <t>有大话西游第三集的预告片吗</t>
-  </si>
-  <si>
-    <t>想看大话西游第三集的预告片</t>
-  </si>
-  <si>
-    <t>看看大话西游第三集的预告片</t>
-  </si>
-  <si>
-    <t>有没有大话西游第三集的预告片</t>
-  </si>
-  <si>
-    <t>大话西游第三集预告片都透露了什么内容</t>
-  </si>
-  <si>
-    <t>大话西游第三集预告片讲述了哪些内容</t>
-  </si>
-  <si>
-    <t>我想看大话西游的第二集预告片</t>
-  </si>
-  <si>
-    <t>你知道哪些关于大话西游的信息</t>
-  </si>
-  <si>
-    <t>大话西游是个什么样的综艺你知道的多吗</t>
-  </si>
-  <si>
-    <t>你了解电视剧大话西游吗</t>
-  </si>
-  <si>
-    <t>介绍下大话西游讲了怎样的事情</t>
-  </si>
-  <si>
-    <t>跟我说说大话西游第十集主要演了什么吧</t>
-  </si>
-  <si>
-    <t>大话西游是个什么样的剧你知道的多吗</t>
-  </si>
-  <si>
-    <t>大话西游的信息你都知道哪些</t>
-  </si>
-  <si>
-    <t>我要看大话西游最后一集的预告</t>
-  </si>
-  <si>
-    <t>打开大话西游第二集的预告吧</t>
-  </si>
-  <si>
-    <t>想看一下大话西游的第二集预告</t>
-  </si>
-  <si>
-    <t>大话西游第二集的下集预告</t>
-  </si>
-  <si>
-    <t>放一下大话西游第二集的下集预告</t>
-  </si>
-  <si>
-    <t>你知道大话西游不</t>
-  </si>
-  <si>
-    <t>介绍下大话西游</t>
-  </si>
-  <si>
-    <t>大话西游这个节目你知道吗</t>
-  </si>
-  <si>
-    <t>你知道不知道大话西游这个综艺节目</t>
-  </si>
-  <si>
-    <t>想看大话西游第三十四集预告片</t>
-  </si>
-  <si>
-    <t>可以看大话西游第七十四集预告片吗</t>
-  </si>
-  <si>
-    <t>把大话西游的十四集预告片播给我看看</t>
-  </si>
-  <si>
     <t>播放金瓶梅</t>
   </si>
   <si>
@@ -4266,297 +4080,740 @@
     <t>你听过奥特曼吗</t>
   </si>
   <si>
-    <t>你听过大话西游吗</t>
-  </si>
-  <si>
-    <t>我想在线看大话西游</t>
-    <rPh sb="5" eb="6">
-      <t>da'h</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xi'y</t>
-    </rPh>
+    <t>给我推荐个流行的电视剧</t>
+  </si>
+  <si>
+    <t>流行电视剧推荐</t>
+  </si>
+  <si>
+    <t>最近有什么流行的电视剧吗</t>
+  </si>
+  <si>
+    <t>最近流行的剧是什么</t>
+  </si>
+  <si>
+    <t>说说流行的电视剧吧</t>
+  </si>
+  <si>
+    <t>给我推荐个流行电视剧</t>
+  </si>
+  <si>
+    <t>鬼吹灯是什么电影</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我要看大话西游第二十四集预告片</t>
-    <rPh sb="10" eb="11">
+    <t>你知道成龙的电影吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请播放啷哩个啷</t>
+  </si>
+  <si>
+    <t>那年青春我们正好小影你看过吗</t>
+  </si>
+  <si>
+    <t>帮我搜索赵丽颖</t>
+  </si>
+  <si>
+    <t>我想知道thek2的信息</t>
+  </si>
+  <si>
+    <t>田馥甄和田馥甄合作的影视作品有哪些</t>
+  </si>
+  <si>
+    <t>博人传:火影忍者电影</t>
+  </si>
+  <si>
+    <t>有哪些公主的动画</t>
+  </si>
+  <si>
+    <t>我想看电视剧那年花开月正圆第15集</t>
+  </si>
+  <si>
+    <t>马向阳下乡记第21集</t>
+  </si>
+  <si>
+    <t>播上甘岭11集</t>
+  </si>
+  <si>
+    <t>放一部西游记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有西游记吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视剧西游记的大结局是什么</t>
+  </si>
+  <si>
+    <t>西游记的大结局预告片出来了吗</t>
+  </si>
+  <si>
+    <t>西游记第三集预告片讲述了哪些内容</t>
+  </si>
+  <si>
+    <t>播放西游记第三集预告片</t>
+  </si>
+  <si>
+    <t>想看西游记第四集预告片</t>
+  </si>
+  <si>
+    <t>西游记第六集预告片我想看一下</t>
+  </si>
+  <si>
+    <t>能看下西游记第十集的预告片吗</t>
+  </si>
+  <si>
+    <t>西游记第二十八集预告片放给我看下</t>
+  </si>
+  <si>
+    <t>放一下西游记第二十七集的预告片</t>
+  </si>
+  <si>
+    <t>能把西游记第十六集的预告片给我看下吗</t>
+  </si>
+  <si>
+    <t>西游记第十五集预告片能放下吗</t>
+  </si>
+  <si>
+    <t>播放西游记第九集预告片</t>
+  </si>
+  <si>
+    <t>给我看一下西游记第二十集的预告片</t>
+  </si>
+  <si>
+    <t>想看西游记第三十四集预告片</t>
+  </si>
+  <si>
+    <t>播放西游记第四十五集预告片给我看</t>
+  </si>
+  <si>
+    <t>把西游记第五十八集预告片放一下</t>
+  </si>
+  <si>
+    <t>我能看西游记第二十八集预告片吗</t>
+  </si>
+  <si>
+    <t>想看西游记第二十七集的预告片</t>
+  </si>
+  <si>
+    <t>有西游记第四十八集预告片可以看吗</t>
+  </si>
+  <si>
+    <t>有没有西游记第二集预告片能看呀</t>
+  </si>
+  <si>
+    <t>我要看西游记的第六十集预告片</t>
+  </si>
+  <si>
+    <t>西游记的三十五集预告片有吗</t>
+  </si>
+  <si>
+    <t>能不能看西游记的五十集预告片呀</t>
+  </si>
+  <si>
+    <t>可以看西游记第七十四集预告片吗</t>
+  </si>
+  <si>
+    <t>西游记第二集预告片出来了吗</t>
+  </si>
+  <si>
+    <t>西游记第二集预告片放出来了吗</t>
+  </si>
+  <si>
+    <t>给我打开西游记第二集的预告片吧</t>
+  </si>
+  <si>
+    <t>可以播放一下西游记的预告片吗</t>
+  </si>
+  <si>
+    <t>能不能放一下西游记的预告片</t>
+  </si>
+  <si>
+    <t>西游记的预告片播放一下呗</t>
+  </si>
+  <si>
+    <t>放一下西游记第十集的预告片</t>
+  </si>
+  <si>
+    <t>我想看西游记第十一集的预告片</t>
+  </si>
+  <si>
+    <t>那个西游记的预告片播放一下呗</t>
+  </si>
+  <si>
+    <t>我想看西游记第五集的预告片</t>
+  </si>
+  <si>
+    <t>要看西游记的预告片</t>
+  </si>
+  <si>
+    <t>把第十四集的预告片播一下西游记的</t>
+  </si>
+  <si>
+    <t>想看西游记的预告片</t>
+  </si>
+  <si>
+    <t>将西游记第十集的预告片放一下</t>
+  </si>
+  <si>
+    <t>能否看一下西游记的第二集的预告片</t>
+  </si>
+  <si>
+    <t>我想看西游记第二集的预告片</t>
+  </si>
+  <si>
+    <t>能否播放一下西游记第九集的预告片</t>
+  </si>
+  <si>
+    <t>咨询一下西游记的第三集的预告片</t>
+  </si>
+  <si>
+    <t>可以给我看一下西游记第二十一集的预告片么</t>
+  </si>
+  <si>
+    <t>我要看西游记第二十四集的预告片</t>
+  </si>
+  <si>
+    <t>来放一下西游记第二十五集的预告片</t>
+  </si>
+  <si>
+    <t>给我放西游记第三集的预告片</t>
+  </si>
+  <si>
+    <t>能不能放第五集西游记的预告片</t>
+  </si>
+  <si>
+    <t>西游记的第十五集的预告片播放一下</t>
+  </si>
+  <si>
+    <t>西游记第三集预告片内容是什么</t>
+  </si>
+  <si>
+    <t>西游记第三集有预告片吗</t>
+  </si>
+  <si>
+    <t>有西游记第三集的预告片吗</t>
+  </si>
+  <si>
+    <t>想看西游记第三集的预告片</t>
+  </si>
+  <si>
+    <t>看看西游记第三集的预告片</t>
+  </si>
+  <si>
+    <t>有没有西游记第三集的预告片</t>
+  </si>
+  <si>
+    <t>西游记第三集预告片都透露了什么内容</t>
+  </si>
+  <si>
+    <t>我要看西游记第二十四集预告片</t>
+    <rPh sb="9" eb="10">
       <t>s</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看一下大话西游的三十集预告片</t>
-  </si>
-  <si>
-    <t>给我看一下大话西游的第二集预告片</t>
-  </si>
-  <si>
-    <t>现在有大话西游第二集预告吗</t>
-  </si>
-  <si>
-    <t>我来看一下电视剧大话西游的第二集预告</t>
-  </si>
-  <si>
-    <t>你是不是比较了解大话西游呀</t>
-  </si>
-  <si>
-    <t>你能打开大话西游的第二集预告吗</t>
-  </si>
-  <si>
-    <t>你可以给我介绍一下大话西游第二十集的介绍吗</t>
-  </si>
-  <si>
-    <t>那个大话西游的预告片播放一下呗</t>
-  </si>
-  <si>
-    <t>那个大话西游的第一季的预告片播放一下</t>
-  </si>
-  <si>
-    <t>电视剧大话西游三</t>
-  </si>
-  <si>
-    <t>播放大话西游的第二集预告吧</t>
-  </si>
-  <si>
-    <t>把第十四集的预告片播一下大话西游的</t>
-  </si>
-  <si>
-    <t>有大话西游的第二集预告吗</t>
-  </si>
-  <si>
-    <t>你有没有看过电视剧大话西游</t>
-  </si>
-  <si>
-    <t>看过大话西游这部电视剧吗</t>
-  </si>
-  <si>
-    <t>看过大话西游没有</t>
-  </si>
-  <si>
-    <t>介绍下大话西游这部电视剧</t>
-  </si>
-  <si>
-    <t>给我打开大话西游第二集的预告吧</t>
-  </si>
-  <si>
-    <t>大话西游第二集预告你有吗</t>
-  </si>
-  <si>
-    <t>给我打开大话西游第二集预告吧</t>
-  </si>
-  <si>
-    <t>大话西游第三集的预告</t>
-  </si>
-  <si>
-    <t>播放大话西游第三集预告</t>
-  </si>
-  <si>
-    <t>查查大话西游第三集的预告</t>
-  </si>
-  <si>
-    <t>搜一下大话西游第三集的预告</t>
-  </si>
-  <si>
-    <t>给我推荐个流行的电视剧</t>
-  </si>
-  <si>
-    <t>流行电视剧推荐</t>
-  </si>
-  <si>
-    <t>最近有什么流行的电视剧吗</t>
-  </si>
-  <si>
-    <t>最近流行的剧是什么</t>
-  </si>
-  <si>
-    <t>说说流行的电视剧吧</t>
-  </si>
-  <si>
-    <t>给我推荐个流行电视剧</t>
-  </si>
-  <si>
-    <t>有大话西游吗</t>
-    <rPh sb="1" eb="2">
+    <t>看一下西游记的三十集预告片</t>
+  </si>
+  <si>
+    <t>给我看一下西游记的第二集预告片</t>
+  </si>
+  <si>
+    <t>我想看西游记的第二集预告片</t>
+  </si>
+  <si>
+    <t>我想看西游记的第二集的预告片</t>
+  </si>
+  <si>
+    <t>现在有西游记第二集预告吗</t>
+  </si>
+  <si>
+    <t>我想在线看西游记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来看一下电视剧西游记的第二集预告</t>
+  </si>
+  <si>
+    <t>请把西游记推介播放一下</t>
+  </si>
+  <si>
+    <t>你知道哪些关于西游记的信息</t>
+  </si>
+  <si>
+    <t>你知道西游记之月光宝盒</t>
+  </si>
+  <si>
+    <t>你是不是比较了解西游记呀</t>
+  </si>
+  <si>
+    <t>你能打开西游记的第二集预告吗</t>
+  </si>
+  <si>
+    <t>你可以给我介绍一下西游记第二十集的介绍吗</t>
+  </si>
+  <si>
+    <t>那个西游记的第一季的预告片播放一下</t>
+  </si>
+  <si>
+    <t>那个西游记的预告片给我看看</t>
+  </si>
+  <si>
+    <t>介绍下西游记</t>
+  </si>
+  <si>
+    <t>给我播放一下西游记的剧情推介</t>
+  </si>
+  <si>
+    <t>给我播放一下西游记的介绍</t>
+  </si>
+  <si>
+    <t>电视剧西游记三</t>
+  </si>
+  <si>
+    <t>西游记看过吗</t>
+  </si>
+  <si>
+    <t>播放西游记的第二集预告吧</t>
+  </si>
+  <si>
+    <t>把西游记的十四集预告片播给我看看</t>
+  </si>
+  <si>
+    <t>西游记是个什么样的综艺你知道的多吗</t>
+  </si>
+  <si>
+    <t>西游记的预告片给我播放一下</t>
+  </si>
+  <si>
+    <t>有西游记的第二集预告吗</t>
+  </si>
+  <si>
+    <t>想了解一下西游记的介绍</t>
+  </si>
+  <si>
+    <t>你知道西游记不</t>
+  </si>
+  <si>
+    <t>你有没有看过电视剧西游记</t>
+  </si>
+  <si>
+    <t>你听过西游记吗</t>
+  </si>
+  <si>
+    <t>你了解电视剧西游记吗</t>
+  </si>
+  <si>
+    <t>能不能播放一下西游记的剧情的简介</t>
+  </si>
+  <si>
+    <t>来播放一下西游记的介绍</t>
+  </si>
+  <si>
+    <t>看过西游记这部电视剧吗</t>
+  </si>
+  <si>
+    <t>看过西游记没有</t>
+  </si>
+  <si>
+    <t>介绍下西游记这部电视剧</t>
+  </si>
+  <si>
+    <t>介绍下西游记讲了怎样的事情</t>
+  </si>
+  <si>
+    <t>跟我说说西游记第十集主要演了什么吧</t>
+  </si>
+  <si>
+    <t>西游记是个什么样的剧你知道的多吗</t>
+  </si>
+  <si>
+    <t>西游记的信息你都知道哪些</t>
+  </si>
+  <si>
+    <t>你知道西游记吗</t>
+  </si>
+  <si>
+    <t>我要看西游记最后一集的预告</t>
+  </si>
+  <si>
+    <t>打开西游记第二集的预告吧</t>
+  </si>
+  <si>
+    <t>想看一下西游记的第二集预告</t>
+  </si>
+  <si>
+    <t>西游记第二集的下集预告</t>
+  </si>
+  <si>
+    <t>放一下西游记第二集的下集预告</t>
+  </si>
+  <si>
+    <t>我想看一下西游记的介绍</t>
+  </si>
+  <si>
+    <t>给我打开西游记第二集的预告吧</t>
+  </si>
+  <si>
+    <t>西游记第二集预告你有吗</t>
+  </si>
+  <si>
+    <t>给我打开西游记第二集预告吧</t>
+  </si>
+  <si>
+    <t>西游记第三集的预告</t>
+  </si>
+  <si>
+    <t>播放西游记第三集预告</t>
+  </si>
+  <si>
+    <t>查查西游记第三集的预告</t>
+  </si>
+  <si>
+    <t>搜一下西游记第三集的预告</t>
+  </si>
+  <si>
+    <t>西游记这个节目你知道吗</t>
+  </si>
+  <si>
+    <t>你知道不知道西游记这个综艺节目</t>
+  </si>
+  <si>
+    <t>西游记这个综艺节目你了解吗</t>
+  </si>
+  <si>
+    <t>电影西游记</t>
+  </si>
+  <si>
+    <t>西游记电影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放西游记</t>
+    <rPh sb="0" eb="1">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看西游记</t>
+  </si>
+  <si>
+    <t>搜索西游记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想看西游记</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想看周星驰演的大话西游</t>
+    <rPh sb="0" eb="1">
+      <t>wo'xiang'kn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou'xing'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>da'h</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="10" eb="11">
       <t>xi'you</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大话西游电影</t>
+    <t>播放周星驰演的大话西游</t>
     <rPh sb="0" eb="1">
+      <t>bo'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想看周星驰演的大话西游第一部</t>
+    <rPh sb="0" eb="1">
+      <t>wo'xiang'kn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou'xing'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>da'h</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="10" eb="11">
       <t>xi'you</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼吹灯是什么电影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放一部大话西游</t>
-    <rPh sb="3" eb="4">
-      <t>da'h</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi'y</t>
+    <rPh sb="12" eb="13">
+      <t>di'yi'b</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你知道成龙的电影吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请播放啷哩个啷</t>
-  </si>
-  <si>
-    <t>大话西游的预告片播放一下呗</t>
-  </si>
-  <si>
-    <t>放一下大话西游第十集的预告片</t>
-  </si>
-  <si>
-    <t>我想看大话西游第十一集的预告片</t>
-  </si>
-  <si>
-    <t>我想看大话西游第五集的预告片</t>
-  </si>
-  <si>
-    <t>要看大话西游的预告片</t>
-  </si>
-  <si>
-    <t>想看大话西游的预告片</t>
-  </si>
-  <si>
-    <t>将大话西游第十集的预告片放一下</t>
-  </si>
-  <si>
-    <t>能否看一下大话西游的第二集的预告片</t>
-  </si>
-  <si>
-    <t>我想看大话西游第二集的预告片</t>
-  </si>
-  <si>
-    <t>咨询一下大话西游的第三集的预告片</t>
-  </si>
-  <si>
-    <t>我要看大话西游第二十四集的预告片</t>
-  </si>
-  <si>
-    <t>来放一下大话西游第二十五集的预告片</t>
-  </si>
-  <si>
-    <t>给我放大话西游第三集的预告片</t>
-  </si>
-  <si>
-    <t>能不能放第五集大话西游的预告片</t>
-  </si>
-  <si>
-    <t>大话西游的第十五集的预告片播放一下</t>
-  </si>
-  <si>
-    <t>我想看大话西游的第二集的预告片</t>
-  </si>
-  <si>
-    <t>请把大话西游推介播放一下</t>
-  </si>
-  <si>
-    <t>那年青春我们正好小影你看过吗</t>
-  </si>
-  <si>
-    <t>那个大话西游的预告片给我看看</t>
-  </si>
-  <si>
-    <t>给我播放一下大话西游的剧情推介</t>
-  </si>
-  <si>
-    <t>给我播放一下大话西游的介绍</t>
-  </si>
-  <si>
-    <t>大话西游的预告片给我播放一下</t>
-  </si>
-  <si>
-    <t>想了解一下大话西游的介绍</t>
-  </si>
-  <si>
-    <t>能不能播放一下大话西游的剧情的简介</t>
-  </si>
-  <si>
-    <t>来播放一下大话西游的介绍</t>
-  </si>
-  <si>
-    <t>我想看一下大话西游的介绍</t>
-  </si>
-  <si>
-    <t>帮我搜索赵丽颖</t>
-  </si>
-  <si>
-    <t>能否播放一下大话西游第九集的预告片</t>
-  </si>
-  <si>
-    <t>我想知道thek2的信息</t>
-  </si>
-  <si>
-    <t>田馥甄和田馥甄合作的影视作品有哪些</t>
-  </si>
-  <si>
-    <t>博人传:火影忍者电影</t>
-  </si>
-  <si>
-    <t>有哪些公主的动画</t>
-  </si>
-  <si>
-    <t>我想看电视剧那年花开月正圆第15集</t>
-  </si>
-  <si>
-    <t>马向阳下乡记第21集</t>
-  </si>
-  <si>
-    <t>放大话西游</t>
+    <t>西游记第一集</t>
     <rPh sb="0" eb="1">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>da'h</t>
+      <t>xi'you'j</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>xi'y</t>
+      <t>di'yi'j</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>播上甘岭11集</t>
-  </si>
-  <si>
-    <t>看看大话西游</t>
-  </si>
-  <si>
-    <t>搜索大话西游</t>
-    <rPh sb="2" eb="3">
-      <t>da'h</t>
+    <t>我喜欢西游记</t>
+    <rPh sb="0" eb="1">
+      <t>wo'xi'h</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>xi'y</t>
+    <rPh sb="3" eb="4">
+      <t>xi'you'j</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>想看大话西游</t>
+    <t>想看西游记</t>
     <rPh sb="0" eb="1">
       <t>xiang'k</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>da'h</t>
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记好看吗</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao'k</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视剧西游记第四集</t>
+    <rPh sb="3" eb="4">
+      <t>xi'you'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要看西游记第二十四集预告片</t>
+  </si>
+  <si>
+    <t>西游记第二十四集预告片能让我看下吗</t>
+  </si>
+  <si>
+    <t>西游记放一下</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'yi'ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记有吗</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播一下西游记</t>
+    <rPh sb="3" eb="4">
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记播一下</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bo'yi'xa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能不能放下西游记</t>
+    <rPh sb="5" eb="6">
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下西游记</t>
+    <rPh sb="0" eb="1">
+      <t>fang'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记能放一下吗</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放一下西游记这个影片</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yi'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'you'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想看下西游记</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'kan'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记放给我</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'gei'wo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记能放给我看吗</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>neng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>xi'y</t>
+      <t>fang'gei'wo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记放给我一下</t>
+    <rPh sb="0" eb="1">
+      <t>xi'youi'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'gei'wo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可不可以放西游记</t>
+    <rPh sb="5" eb="6">
+      <t>xi'you'ij</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记我想看</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'ij</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wo'xiang'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记播放下</t>
+    <rPh sb="0" eb="1">
+      <t>xi'you'ij</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bo'f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮我播放西游记</t>
+    <rPh sb="0" eb="1">
+      <t>bang'wo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bo'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想看大话西游这个影片</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'hua'xi'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播那个大话西游</t>
+    <rPh sb="0" eb="1">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>na'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'hua'xi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4565,7 +4822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4623,6 +4880,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
@@ -4807,7 +5069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4858,6 +5120,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5296,15 +5559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1551"/>
+  <dimension ref="A1:A1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1468" workbookViewId="0">
-      <selection activeCell="A1551" sqref="A1551"/>
+    <sheetView tabSelected="1" topLeftCell="A1480" workbookViewId="0">
+      <selection activeCell="A1577" sqref="A1577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5419,7 +5682,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1377</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -5684,7 +5947,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1378</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -5799,7 +6062,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1441</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -5899,7 +6162,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1432</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
@@ -5924,12 +6187,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1440</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1379</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
@@ -5984,7 +6247,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -6304,7 +6567,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>1380</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -6324,7 +6587,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>1381</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
@@ -6434,7 +6697,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1443</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
@@ -6514,12 +6777,12 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>1433</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
@@ -6534,7 +6797,7 @@
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
@@ -6809,7 +7072,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -6949,7 +7212,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -7019,7 +7282,7 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
@@ -7039,7 +7302,7 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>1382</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
@@ -7059,7 +7322,7 @@
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>1383</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
@@ -7144,7 +7407,7 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>1384</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
@@ -7169,7 +7432,7 @@
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>1438</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
@@ -7279,7 +7542,7 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
@@ -7399,22 +7662,22 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
-        <v>1320</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
-        <v>1321</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
-        <v>1320</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
-        <v>1321</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
@@ -7424,7 +7687,7 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
-        <v>1385</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
@@ -7479,7 +7742,7 @@
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
-        <v>1356</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
@@ -7544,2257 +7807,2257 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="6" t="s">
-        <v>1322</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="6" t="s">
-        <v>1323</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="6" t="s">
-        <v>1324</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="6" t="s">
-        <v>1325</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="6" t="s">
-        <v>1326</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="6" t="s">
-        <v>1327</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
-        <v>1328</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="6" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="6" t="s">
-        <v>1330</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="6" t="s">
-        <v>1331</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="6" t="s">
-        <v>1332</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="6" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="6" t="s">
-        <v>1333</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="6" t="s">
-        <v>1334</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="6" t="s">
-        <v>1335</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="6" t="s">
-        <v>1336</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="6" t="s">
-        <v>1337</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="6" t="s">
-        <v>1338</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="6" t="s">
-        <v>1339</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="6" t="s">
-        <v>1340</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="6" t="s">
-        <v>1341</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="6" t="s">
-        <v>1342</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="6" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="6" t="s">
-        <v>1343</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="6" t="s">
-        <v>1344</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="6" t="s">
-        <v>1345</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="6" t="s">
-        <v>1346</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="6" t="s">
-        <v>1347</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="6" t="s">
-        <v>1444</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
-        <v>1445</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="6" t="s">
-        <v>1446</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="6" t="s">
-        <v>1415</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
-        <v>1447</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="6" t="s">
-        <v>1448</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="6" t="s">
-        <v>1419</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="6" t="s">
-        <v>1449</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="6" t="s">
-        <v>1450</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="6" t="s">
-        <v>1451</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="6" t="s">
-        <v>1452</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="6" t="s">
-        <v>1471</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="6" t="s">
-        <v>1453</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="6" t="s">
-        <v>1348</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="6" t="s">
-        <v>1454</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="6" t="s">
-        <v>1455</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>1456</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="6" t="s">
-        <v>1457</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="6" t="s">
-        <v>1458</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="6" t="s">
-        <v>1349</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="6" t="s">
-        <v>1350</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="6" t="s">
-        <v>1351</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="6" t="s">
-        <v>1352</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="6" t="s">
-        <v>1353</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="6" t="s">
-        <v>1354</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="6" t="s">
-        <v>1355</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="6" t="s">
-        <v>1356</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="6" t="s">
-        <v>1349</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="6" t="s">
-        <v>1350</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="6" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="6" t="s">
-        <v>1323</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="6" t="s">
-        <v>1324</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="6" t="s">
-        <v>1407</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="6" t="s">
-        <v>1327</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="6" t="s">
-        <v>1328</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="6" t="s">
-        <v>1329</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="6" t="s">
-        <v>1330</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="6" t="s">
-        <v>1332</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="6" t="s">
-        <v>1374</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="6" t="s">
-        <v>1335</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="6" t="s">
-        <v>1336</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="6" t="s">
-        <v>1337</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="6" t="s">
-        <v>1338</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="6" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="6" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="6" t="s">
-        <v>1357</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="6" t="s">
-        <v>1345</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="6" t="s">
-        <v>1459</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="6" t="s">
-        <v>1347</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="6" t="s">
-        <v>1445</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="6" t="s">
-        <v>1446</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="6" t="s">
-        <v>1447</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="6" t="s">
-        <v>1448</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="6" t="s">
-        <v>1449</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="6" t="s">
-        <v>1450</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="6" t="s">
-        <v>1452</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="6" t="s">
-        <v>1471</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="6" t="s">
-        <v>1348</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="6" t="s">
-        <v>1454</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="6" t="s">
-        <v>1455</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="6" t="s">
-        <v>1456</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="6" t="s">
-        <v>1322</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="6" t="s">
-        <v>1351</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="6" t="s">
-        <v>1352</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
-        <v>1353</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="6" t="s">
-        <v>1354</v>
+        <v>420</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="6" t="s">
-        <v>455</v>
+      <c r="A577" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>461</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>466</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>472</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1386</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>1386</v>
+        <v>473</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>473</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>507</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1313</v>
+        <v>508</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>523</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1387</v>
+        <v>524</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>532</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1339</v>
+        <v>533</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>542</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1388</v>
+        <v>543</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="1" t="s">
-        <v>553</v>
+      <c r="A684" s="7" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="7" t="s">
-        <v>555</v>
+      <c r="A686" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>568</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>1410</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>1344</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>1343</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1341</v>
+        <v>569</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" s="1" t="s">
-        <v>573</v>
+      <c r="A708" s="7" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="7" t="s">
-        <v>1389</v>
+        <v>574</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" s="7" t="s">
-        <v>575</v>
+      <c r="A711" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>593</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>1472</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>1406</v>
+        <v>594</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" s="1" t="s">
-        <v>595</v>
+      <c r="A733" s="7" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" s="7" t="s">
-        <v>596</v>
+      <c r="A734" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>605</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1357</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1459</v>
+        <v>606</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>606</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1390</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1411</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1314</v>
+        <v>607</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>611</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>1402</v>
+        <v>612</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A773" s="1" t="s">
-        <v>629</v>
+      <c r="A773" s="8" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774" s="8" t="s">
-        <v>630</v>
+      <c r="A774" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
-        <v>651</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
-        <v>1473</v>
+        <v>652</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A797" s="1" t="s">
-        <v>652</v>
+      <c r="A797" s="7" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798" s="7" t="s">
-        <v>653</v>
+      <c r="A798" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
-        <v>660</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
-        <v>1391</v>
+        <v>661</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
-        <v>671</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>1436</v>
+        <v>672</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A825" s="1" t="s">
-        <v>678</v>
+      <c r="A825" s="7" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A826" s="7" t="s">
-        <v>679</v>
+      <c r="A826" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
-        <v>684</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1460</v>
+        <v>685</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858" s="1" t="s">
-        <v>710</v>
+      <c r="A858" s="7" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A859" s="7" t="s">
-        <v>711</v>
+      <c r="A859" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A868" s="1" t="s">
-        <v>720</v>
+      <c r="A868" s="7" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A869" s="7" t="s">
-        <v>721</v>
+      <c r="A869" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
-        <v>741</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
-        <v>1358</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
-        <v>1358</v>
+        <v>742</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
-        <v>748</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.2">
@@ -9819,12 +10082,12 @@
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
-        <v>753</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
-        <v>1442</v>
+        <v>753</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.2">
@@ -9844,27 +10107,27 @@
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>757</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
-        <v>1412</v>
+        <v>757</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" s="1" t="s">
-        <v>758</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" s="1" t="s">
-        <v>1413</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
-        <v>1414</v>
+        <v>758</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.2">
@@ -9914,62 +10177,62 @@
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
-        <v>768</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
-        <v>1325</v>
+        <v>768</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
-        <v>769</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
-        <v>1451</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
-        <v>1342</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
-        <v>1457</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
-        <v>1461</v>
+        <v>769</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" s="1" t="s">
-        <v>770</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" s="1" t="s">
-        <v>1415</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" s="1" t="s">
-        <v>1416</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" s="1" t="s">
-        <v>1462</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
-        <v>1416</v>
+        <v>770</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.2">
@@ -10173,12 +10436,12 @@
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" s="1" t="s">
+      <c r="A974" s="7" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" s="7" t="s">
+      <c r="A975" s="1" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10334,17 +10597,17 @@
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1006" s="1" t="s">
-        <v>843</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1007" s="1" t="s">
-        <v>1375</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1008" s="1" t="s">
-        <v>1346</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
@@ -10384,12 +10647,12 @@
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1016" s="1" t="s">
-        <v>851</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1017" s="1" t="s">
-        <v>1315</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
@@ -10484,12 +10747,12 @@
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1036" s="1" t="s">
-        <v>870</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1037" s="1" t="s">
-        <v>1371</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
@@ -10584,12 +10847,12 @@
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1056" s="1" t="s">
-        <v>889</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1057" s="1" t="s">
-        <v>1392</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
@@ -10629,22 +10892,22 @@
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1065" s="1" t="s">
-        <v>897</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1066" s="1" t="s">
-        <v>1437</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1067" s="1" t="s">
-        <v>898</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1068" s="1" t="s">
-        <v>1393</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
@@ -10669,27 +10932,27 @@
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1073" s="1" t="s">
-        <v>903</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1074" s="1" t="s">
-        <v>1463</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1075" s="1" t="s">
-        <v>1464</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1076" s="1" t="s">
-        <v>1464</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1077" s="1" t="s">
-        <v>1394</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
@@ -10704,12 +10967,12 @@
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1080" s="1" t="s">
-        <v>906</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1081" s="1" t="s">
-        <v>1012</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
@@ -10729,12 +10992,12 @@
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1085" s="1" t="s">
-        <v>910</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1086" s="1" t="s">
-        <v>1417</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
@@ -10774,12 +11037,12 @@
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1094" s="1" t="s">
-        <v>918</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1095" s="1" t="s">
-        <v>1395</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
@@ -10799,12 +11062,12 @@
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1099" s="1" t="s">
-        <v>922</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1100" s="1" t="s">
-        <v>1396</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
@@ -10814,2297 +11077,2427 @@
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1102" s="1" t="s">
-        <v>924</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1103" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1104" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1105" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1106" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1107" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1108" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1109" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1110" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1111" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1112" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1113" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1114" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1115" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1116" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1117" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1118" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1119" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1120" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1121" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1122" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1123" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1124" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1125" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1126" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1127" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1128" s="1" t="s">
-        <v>950</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1129" s="1" t="s">
-        <v>1333</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1130" s="1" t="s">
-        <v>1331</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1131" s="1" t="s">
-        <v>1418</v>
+        <v>949</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1132" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1133" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1134" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1135" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1136" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1137" s="1" t="s">
-        <v>956</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1138" s="1" t="s">
-        <v>1334</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1139" s="1" t="s">
-        <v>1376</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1140" s="1" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1141" s="1" t="s">
-        <v>1376</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1142" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1143" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1144" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1145" s="1" t="s">
-        <v>960</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1146" s="1" t="s">
-        <v>1359</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1147" s="1" t="s">
-        <v>1465</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1148" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1149" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1150" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1151" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1152" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1153" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155" s="10" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1154" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1155" s="9" t="s">
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1156" s="10" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1157" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1158" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1159" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1160" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1161" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1162" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1163" s="1" t="s">
-        <v>975</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1164" s="1" t="s">
-        <v>1420</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1165" s="1" t="s">
-        <v>976</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1166" s="1" t="s">
-        <v>1466</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1167" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1168" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1169" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1170" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1171" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1172" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1173" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1174" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1175" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1176" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1177" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1178" s="1" t="s">
-        <v>988</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1179" s="1" t="s">
-        <v>1370</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1180" s="1" t="s">
+      <c r="A1180" s="8" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1" t="s">
         <v>989</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1181" s="8" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1182" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1183" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1184" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1185" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1186" s="1" t="s">
-        <v>995</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1187" s="1" t="s">
-        <v>1421</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1188" s="1" t="s">
-        <v>996</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1189" s="1" t="s">
-        <v>1403</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1190" s="1" t="s">
-        <v>1404</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1191" s="1" t="s">
-        <v>1405</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1192" s="1" t="s">
-        <v>997</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1193" s="1" t="s">
-        <v>1360</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1194" s="1" t="s">
-        <v>998</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1195" s="1" t="s">
-        <v>1397</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1196" s="1" t="s">
-        <v>999</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1197" s="1" t="s">
-        <v>1467</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1198" s="1" t="s">
-        <v>1000</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1199" s="1" t="s">
-        <v>1317</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1200" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1201" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1202" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1203" s="1" t="s">
-        <v>1004</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1204" s="1" t="s">
-        <v>1468</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1205" s="1" t="s">
-        <v>1005</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1206" s="1" t="s">
-        <v>1422</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1207" s="1" t="s">
-        <v>1423</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1208" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1209" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1210" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1211" s="1" t="s">
-        <v>1009</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1212" s="1" t="s">
-        <v>1424</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1213" s="1" t="s">
-        <v>1361</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1214" s="1" t="s">
-        <v>1010</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1215" s="1" t="s">
-        <v>1362</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1216" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1217" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1218" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1219" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1220" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1221" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1223" s="1" t="s">
-        <v>1018</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" s="1" t="s">
-        <v>1363</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" s="1" t="s">
-        <v>1364</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" s="1" t="s">
-        <v>1398</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1229" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1233" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1234" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1236" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1237" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1238" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1239" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1240" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1241" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1242" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1243" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1244" s="1" t="s">
-        <v>1036</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1245" s="1" t="s">
-        <v>1286</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1246" s="1" t="s">
-        <v>1037</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1247" s="1" t="s">
-        <v>1399</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1248" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1249" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1250" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="6" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1251" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1252" s="6" t="s">
-        <v>1042</v>
+      <c r="A1252" s="1" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1253" s="1" t="s">
-        <v>1400</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1254" s="1" t="s">
-        <v>1318</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1255" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1256" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1257" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1258" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1259" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1260" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" s="11" t="s">
         <v>1048</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1261" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1262" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1263" s="11" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1" t="s">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1264" s="11" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1265" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1266" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1268" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1269" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1270" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1271" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1272" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1273" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1274" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1275" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1276" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1277" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1278" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1279" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1280" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1281" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1282" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1283" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1284" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1285" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1286" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1287" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1288" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1289" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1290" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1291" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1292" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1293" s="6" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1293" s="1" t="s">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1294" s="6" t="s">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="6" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1295" s="1" t="s">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1" t="s">
         <v>1083</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1296" s="6" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1297" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1298" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1299" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1300" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1301" s="1" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1302" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1303" s="1" t="s">
-        <v>1090</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1304" s="1" t="s">
-        <v>1365</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1305" s="1" t="s">
-        <v>1366</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1306" s="1" t="s">
-        <v>1367</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1307" s="1" t="s">
-        <v>1368</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1308" s="1" t="s">
-        <v>1369</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1309" s="1" t="s">
-        <v>1370</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1310" s="1" t="s">
-        <v>1371</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1311" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1312" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1313" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1314" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1315" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1316" s="1" t="s">
-        <v>1096</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1317" s="1" t="s">
-        <v>1469</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1318" s="1" t="s">
-        <v>1468</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1319" s="1" t="s">
-        <v>1467</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1320" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1321" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1322" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1323" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1324" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1325" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1326" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1327" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1328" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1329" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1330" s="6" t="s">
         <v>1106</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1330" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1331" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1332" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1333" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1334" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1335" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1336" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1337" s="6" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="1" t="s">
         <v>1114</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1338" s="6" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1339" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1340" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1341" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1342" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1343" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="6" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1344" s="1" t="s">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="1" t="s">
         <v>1121</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1345" s="6" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1346" s="1" t="s">
-        <v>1123</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1347" s="1" t="s">
-        <v>1474</v>
+      <c r="A1347" s="6" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1348" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1349" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350" s="1" t="s">
         <v>1125</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1350" s="6" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1351" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1352" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1353" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1354" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1355" s="6" t="s">
         <v>1130</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1355" s="1" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1356" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1357" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1358" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1359" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1" t="s">
         <v>1135</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1360" s="6" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1361" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1362" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1363" s="1" t="s">
-        <v>1139</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1364" s="1" t="s">
-        <v>1401</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1365" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1366" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1367" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1368" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1369" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1370" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1371" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1372" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1373" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1374" s="6" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1374" s="1" t="s">
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1375" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1375" s="6" t="s">
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1376" s="6" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1377" s="1" t="s">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1376" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1377" s="6" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1378" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1379" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1380" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1381" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382" s="6" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1382" s="1" t="s">
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383" s="1" t="s">
         <v>1156</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1383" s="6" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1384" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1385" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1386" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387" s="6" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1387" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1388" s="6" t="s">
-        <v>1162</v>
+      <c r="A1388" s="1" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1389" s="1" t="s">
-        <v>1425</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1390" s="1" t="s">
-        <v>1426</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1391" s="1" t="s">
-        <v>1427</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1392" s="1" t="s">
-        <v>1428</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1393" s="1" t="s">
-        <v>1429</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1394" s="1" t="s">
-        <v>1430</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1395" s="1" t="s">
-        <v>1431</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1396" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1397" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1398" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1399" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1400" s="6" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1400" s="1" t="s">
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1401" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1401" s="6" t="s">
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1402" s="6" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1402" s="1" t="s">
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1403" s="1" t="s">
         <v>1169</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1403" s="6" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1404" s="1" t="s">
-        <v>1171</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1405" s="1" t="s">
-        <v>1319</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1406" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1407" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1408" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1409" s="12" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1409" s="1" t="s">
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1410" s="13" t="s">
         <v>1175</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1410" s="12" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1411" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1412" s="13" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1413" s="14" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1413" s="13" t="s">
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1414" s="15" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1414" s="14" t="s">
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1415" s="13" t="s">
         <v>1180</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1415" s="15" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1416" s="13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1417" s="13" t="s">
-        <v>1183</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1418" s="13" t="s">
-        <v>1372</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1419" s="13" t="s">
-        <v>1184</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1420" s="13" t="s">
-        <v>1373</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1421" s="13" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1422" s="14" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1423" s="16" t="s">
         <v>1185</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1422" s="13" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1423" s="14" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1424" s="16" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1425" s="16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1426" s="16" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1427" s="16" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1428" s="16" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1429" s="16" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1430" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1431" s="16" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1432" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1433" s="16" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1434" s="16" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1435" s="16" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1436" s="16" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1437" s="16" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1438" s="16" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1439" s="16" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1440" s="16" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1441" s="16" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1442" s="16" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1443" s="16" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1444" s="16" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1445" s="16" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1446" s="16" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1447" s="16" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1448" s="16" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1449" s="16" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1450" s="16" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1451" s="16" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1452" s="16" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1453" s="16" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1454" s="16" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1455" s="16" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1456" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1457" s="16" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1458" s="16" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1459" s="16" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1460" s="16" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1461" s="16" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1462" s="16" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1463" s="16" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1464" s="16" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1465" s="16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1466" s="16" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1467" s="16" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1468" s="16" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1469" s="16" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1470" s="16" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1471" s="16" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1472" s="16" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1473" s="16" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1474" s="16" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1475" s="16" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1476" s="16" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1477" s="16" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1478" s="16" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1479" s="16" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1480" s="16" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1481" s="16" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1482" s="16" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1483" s="16" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1484" s="16" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1485" s="16" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1486" s="16" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1487" s="16" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1488" s="16" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1489" s="16" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1490" s="16" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1491" s="16" t="s">
-        <v>1255</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1492" s="16" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1493" s="16" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1494" s="16" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1495" s="16" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1496" s="16" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1497" s="16" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1498" s="16" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1499" s="16" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1500" s="16" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1501" s="16" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1502" s="16" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1503" s="16" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1504" s="16" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1505" s="16" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1506" s="16" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1507" s="16" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1508" s="16" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1509" s="16" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1510" s="16" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1511" s="16" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1512" s="16" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1513" s="16" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1514" s="16" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1515" s="16" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1516" s="16" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1517" s="16" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1518" s="16" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1519" s="16" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1520" s="16" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1521" s="16" t="s">
-        <v>1285</v>
+      <c r="A1521" s="11" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1522" s="11" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1523" s="11" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1524" s="11" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1525" s="11" t="s">
-        <v>1289</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1526" s="11" t="s">
-        <v>1475</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1527" s="11" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1528" s="11" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1529" s="11" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1530" s="11" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1531" s="11" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1532" s="11" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1533" s="11" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1534" s="11" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1535" s="11" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1536" s="11" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1537" s="11" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1538" s="11" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1539" s="11" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1540" s="11" t="s">
-        <v>1303</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1541" s="11" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1542" s="11" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1543" s="11" t="s">
-        <v>1305</v>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1543" s="17" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1544" s="17" t="s">
-        <v>1306</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1545" s="17" t="s">
-        <v>1476</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1546" s="17" t="s">
+      <c r="A1546" s="19" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1547" s="19" t="s">
+      <c r="A1547" s="17" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1548" s="18" t="s">
         <v>1478</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1548" s="17" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1549" s="18" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1550" s="18" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1551" s="20" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1551" s="18" t="s">
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1552" s="18" t="s">
         <v>1482</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1553" s="20" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1554" s="18" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1555" s="18" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1556" s="18" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1557" s="18" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1558" s="18" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1559" s="18" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1560" s="18" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1561" s="18" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1562" s="18" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1563" s="18" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1564" s="18" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1565" s="18" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1566" s="18" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1567" s="18" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1568" s="18" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1569" s="18" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1570" s="18" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1571" s="20" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1572" s="18" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1573" s="18" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1574" s="18" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1575" s="18" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1576" s="18" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1577" s="18" t="s">
+        <v>1508</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A411:A577">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A410">
-    <cfRule type="duplicateValues" dxfId="8" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A410">
-    <cfRule type="duplicateValues" dxfId="6" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A578:A1155">
-    <cfRule type="duplicateValues" dxfId="5" priority="148"/>
+  <conditionalFormatting sqref="A577:A1154">
+    <cfRule type="duplicateValues" dxfId="6" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A13 A1156:A1547">
-    <cfRule type="duplicateValues" dxfId="4" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="152"/>
+  <conditionalFormatting sqref="A1155:A1546 A2:A13">
+    <cfRule type="duplicateValues" dxfId="5" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A410 A1156:A1547">
-    <cfRule type="duplicateValues" dxfId="2" priority="157"/>
+  <conditionalFormatting sqref="A1155:A1546 A2:A410">
+    <cfRule type="duplicateValues" dxfId="3" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A577 A1156:A1547">
-    <cfRule type="duplicateValues" dxfId="1" priority="160"/>
+  <conditionalFormatting sqref="A1155:A1546 A2:A576">
+    <cfRule type="duplicateValues" dxfId="2" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A1547">
-    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+  <conditionalFormatting sqref="A411:A576">
+    <cfRule type="duplicateValues" dxfId="1" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1546">
+    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
